--- a/data/trans_camb/P0902-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.5232304402121163</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.8283114807612457</v>
+        <v>0.8283114807612444</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.6405262591416951</v>
@@ -664,7 +664,7 @@
         <v>0.241125515317904</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.9530745946807209</v>
+        <v>0.9530745946807195</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.744609088360169</v>
+        <v>-4.715135350201688</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.373535814991239</v>
+        <v>-3.553180281097641</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.13288031380998</v>
+        <v>-2.875018214489965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.656876899415249</v>
+        <v>-5.105827571834367</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.742751349699907</v>
+        <v>-5.983992571119201</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.615467422200137</v>
+        <v>-4.020141870789169</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.547037214619135</v>
+        <v>-3.4211425649597</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.868025429344552</v>
+        <v>-2.89588538131297</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.734528809007104</v>
+        <v>-1.879863345146073</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.811900424488011</v>
+        <v>1.928626733519124</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.831112966727427</v>
+        <v>3.962872891946227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.334236923315934</v>
+        <v>3.929102504278799</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.752792153619479</v>
+        <v>5.815054422101148</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.97027508379756</v>
+        <v>4.919034538744101</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.398500866222303</v>
+        <v>4.724558449275776</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.205335204702009</v>
+        <v>2.531479546012649</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.198201105608218</v>
+        <v>3.371680291614129</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.551652983300502</v>
+        <v>3.403340934670512</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.04497401028216286</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07119709823741857</v>
+        <v>0.07119709823741845</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.07130569101174367</v>
@@ -769,7 +769,7 @@
         <v>0.02684296115095323</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1060996978492532</v>
+        <v>0.1060996978492531</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5233756365022627</v>
+        <v>-0.531856782574777</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3902810507050986</v>
+        <v>-0.4035322963816592</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3304546876104567</v>
+        <v>-0.3159540284194835</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3379317276611178</v>
+        <v>-0.3574969541089826</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4104652626656742</v>
+        <v>-0.3988013548024663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.249497991608256</v>
+        <v>-0.2729423138517186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.339199678129725</v>
+        <v>-0.3374326082339829</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2724556524294632</v>
+        <v>-0.2958520539320284</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1637518835234836</v>
+        <v>-0.182582722511438</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3182343016058428</v>
+        <v>0.3834999552309453</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6773162277484627</v>
+        <v>0.7191085134222108</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5976576551103759</v>
+        <v>0.7175124528685919</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6495312013535893</v>
+        <v>0.6521978588923167</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5694502506350198</v>
+        <v>0.5110516147735606</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6256169406178715</v>
+        <v>0.5304030611026622</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2949646276242516</v>
+        <v>0.3249193374189617</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4043826079097549</v>
+        <v>0.4442137384714386</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4900079090894592</v>
+        <v>0.4622972564807235</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.228940626439335</v>
+        <v>1.426703549285901</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.083902732789546</v>
+        <v>-2.838744254999715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4547109798808673</v>
+        <v>0.5177528261579539</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.007347917004165</v>
+        <v>-3.258773657631501</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.797458975972045</v>
+        <v>-3.55886369581947</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7335844559963666</v>
+        <v>0.4163887202250726</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2062146747733526</v>
+        <v>0.6048186357344862</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.52954948716654</v>
+        <v>-2.379281978909687</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.116375992956439</v>
+        <v>1.462192417257632</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.464652155739763</v>
+        <v>9.662597839999231</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.856603129113418</v>
+        <v>3.76645442873586</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.185288718364554</v>
+        <v>7.249903058051051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.046036045065995</v>
+        <v>6.888737454089035</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.368380279045231</v>
+        <v>5.250679988483946</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.490037578849943</v>
+        <v>8.665667267597673</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.455958064303288</v>
+        <v>6.701892176036951</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.250134771114964</v>
+        <v>3.297936596154941</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.740043155698547</v>
+        <v>6.748546864369104</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.151304375900575</v>
+        <v>0.1524764695457861</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4506300843844505</v>
+        <v>-0.4496416185871029</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03489208765759711</v>
+        <v>0.06402746424315975</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2972742217037117</v>
+        <v>-0.2862424648048768</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3678975268338036</v>
+        <v>-0.3324547224224504</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05349108497431464</v>
+        <v>0.02874788839633597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01402191114965452</v>
+        <v>0.04325587557922565</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2918454613907714</v>
+        <v>-0.2774810187421571</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1006367259608398</v>
+        <v>0.1577980240312125</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.607631888085919</v>
+        <v>2.687680681436089</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.08546087062987</v>
+        <v>1.08228528444352</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.13562259376935</v>
+        <v>2.270505010563951</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8232973313835484</v>
+        <v>0.9935461570217231</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7592984907548007</v>
+        <v>0.7621585276542032</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.258728520302553</v>
+        <v>1.27524969840964</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.084069726308598</v>
+        <v>1.152372816588392</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5532669648611702</v>
+        <v>0.5563203677634998</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.149822911456271</v>
+        <v>1.210617949209324</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>1.968654015722515</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.427200188783309</v>
+        <v>6.427200188783313</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.428981448333815</v>
+        <v>2.14681941138205</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.153914552051513</v>
+        <v>-1.907697407291324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.582250580261539</v>
+        <v>2.763287396259277</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.295870936325343</v>
+        <v>-7.359132979244707</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.644236540357949</v>
+        <v>-5.463266849827191</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.277672943907977</v>
+        <v>-4.378573380328086</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.749931984523319</v>
+        <v>1.624684420428402</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.241177378875104</v>
+        <v>-1.601027795836239</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.353070696702792</v>
+        <v>2.264211556101107</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.01017540006377</v>
+        <v>9.824376994727674</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.420327347871626</v>
+        <v>4.8476075161772</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.55357869226704</v>
+        <v>10.68371991971549</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.557384886938557</v>
+        <v>8.011614040512779</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.32585417176669</v>
+        <v>13.34469021547143</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.04903092238216</v>
+        <v>11.43806086593557</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.329541269231875</v>
+        <v>8.425847457003004</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.438577028003718</v>
+        <v>5.308121182292801</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.939689761521651</v>
+        <v>9.749285916827386</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.192240404251931</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.6276204719732459</v>
+        <v>0.6276204719732462</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.252188214353233</v>
+        <v>0.217026925564646</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2152360396555199</v>
+        <v>-0.2170598775930593</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2510179449942964</v>
+        <v>0.2828766985731004</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3146626119910791</v>
+        <v>-0.3064877212654804</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2523187603545012</v>
+        <v>-0.2320644953011497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.19291730050077</v>
+        <v>-0.196302616657102</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.130635668557734</v>
+        <v>0.1281474320509149</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1043208937607351</v>
+        <v>-0.1284333674249037</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2724957171108933</v>
+        <v>0.1803950767686203</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.604069923194364</v>
+        <v>1.536784699536238</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7086397886907371</v>
+        <v>0.7471123722528314</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.738229097815699</v>
+        <v>1.732047550750709</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6220746698990336</v>
+        <v>0.5887755096802484</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9246668694097296</v>
+        <v>0.899102992731112</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8602968075868123</v>
+        <v>0.7533573660623649</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9523187673901714</v>
+        <v>0.9605337215546235</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6382602573265292</v>
+        <v>0.5927968596391263</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.164722408754699</v>
+        <v>1.107146976389408</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.5767026145027956</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.533872413889582</v>
+        <v>5.533872413889579</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.86511458822063</v>
@@ -1297,7 +1297,7 @@
         <v>0.6213792294931936</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.96668937819159</v>
+        <v>3.966689378191593</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.8316359947531</v>
@@ -1306,7 +1306,7 @@
         <v>0.703788135550007</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.994334901493904</v>
+        <v>4.994334901493906</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004061776233722649</v>
+        <v>0.1717802177463931</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.90090574812271</v>
+        <v>-1.760094132608346</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.580877817545249</v>
+        <v>2.771306928397591</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.101125810199902</v>
+        <v>-0.8624782253363491</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.838810397834414</v>
+        <v>-2.923605528620008</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5512199443807336</v>
+        <v>0.7155068421834346</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.718504100273634</v>
+        <v>0.6869751328541628</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.2812895714016</v>
+        <v>-1.374741335414192</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.778705377147524</v>
+        <v>2.953134285237431</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.404062550843964</v>
+        <v>5.587127883057562</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.080856990216128</v>
+        <v>2.982838556199525</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.429237045329836</v>
+        <v>8.434104717449964</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.380308094910854</v>
+        <v>6.553568310654967</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.747750623596802</v>
+        <v>4.389950391868302</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.922046022761696</v>
+        <v>7.166739895109842</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.073374356373896</v>
+        <v>5.097993074666814</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.85795487867208</v>
+        <v>2.770601042752772</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.955429205317298</v>
+        <v>7.090594462621837</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.05640917796635509</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5412862469980829</v>
+        <v>0.5412862469980827</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2329653076502622</v>
@@ -1402,7 +1402,7 @@
         <v>0.05052496118707327</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3225354459269083</v>
+        <v>0.3225354459269085</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2578298420226195</v>
@@ -1411,7 +1411,7 @@
         <v>0.0640822422594166</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4547507451686092</v>
+        <v>0.4547507451686095</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.002240836114366724</v>
+        <v>0.0139351182127211</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1649747473554292</v>
+        <v>-0.1562559205141867</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2214614456207566</v>
+        <v>0.2448612226566908</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.08297481506981266</v>
+        <v>-0.06352611704067351</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2073305005757884</v>
+        <v>-0.2117795462970781</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03181468681283135</v>
+        <v>0.0490204667775529</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06014394547323563</v>
+        <v>0.05944293788793369</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1071217695674387</v>
+        <v>-0.1138115267108359</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2312520100318449</v>
+        <v>0.2355245990251903</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6002060570540528</v>
+        <v>0.6355288881162984</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.338258827589785</v>
+        <v>0.3274762778578008</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9111373888159574</v>
+        <v>0.9303445087851669</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5739570294885502</v>
+        <v>0.5996826948148083</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.338720706757573</v>
+        <v>0.4082317447728336</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6449051184148906</v>
+        <v>0.6698243613106949</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.520415786846573</v>
+        <v>0.5074099937257164</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2872887909786176</v>
+        <v>0.28020010450023</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6922239831695759</v>
+        <v>0.709428589203256</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.58669228286913</v>
+        <v>-2.014596237497901</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.7885813488297483</v>
+        <v>-0.938942038057017</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.656225697402792</v>
+        <v>0.7866861897370524</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.508822235828882</v>
+        <v>8.640159526834225</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.144215108918125</v>
+        <v>3.952662609930525</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.016381786918326</v>
+        <v>7.005433995658872</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.377328693055393</v>
+        <v>5.31152273837609</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.535470303305377</v>
+        <v>2.670225382188587</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.253870257799925</v>
+        <v>5.700035761841741</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.014685401394259</v>
+        <v>6.117970252787604</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.319210094862068</v>
+        <v>7.506785835479011</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.19680183259309</v>
+        <v>9.694839215694692</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.66679578026945</v>
+        <v>17.27527028295653</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.13747630727182</v>
+        <v>12.55140149119096</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.74790687329516</v>
+        <v>14.92622462101905</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.00606309142653</v>
+        <v>11.59994571658951</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.028208924770317</v>
+        <v>8.713666971912794</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.01356073351385</v>
+        <v>11.73580574775332</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.5774797115928362</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7570983038919412</v>
+        <v>0.7570983038919417</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.6423645354031126</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1966908109275099</v>
+        <v>-0.1628615039469674</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.071217199038002</v>
+        <v>-0.07349302092704818</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1170597422783405</v>
+        <v>0.05569899189357421</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4930055835019621</v>
+        <v>0.4863953081545807</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2326611738722836</v>
+        <v>0.2211907959637292</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4101900392735509</v>
+        <v>0.3885319471790735</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3661344381315556</v>
+        <v>0.3499390874296602</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1658355209980175</v>
+        <v>0.166381446657509</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4170590789720329</v>
+        <v>0.3616832075306034</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7915915344930998</v>
+        <v>0.7461552911136893</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9413763912239395</v>
+        <v>0.9276924203663437</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.26968825818472</v>
+        <v>1.202992340994858</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.41550540338324</v>
+        <v>1.383030249837253</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.039541955399592</v>
+        <v>1.005172874225546</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.19317632582551</v>
+        <v>1.201895026074683</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.059096032358525</v>
+        <v>1.003704946929053</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7744263571695312</v>
+        <v>0.7628435632764474</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.049671314145458</v>
+        <v>1.011564848019263</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.101436319027782</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.526497834119804</v>
+        <v>6.526497834119807</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.389395316086114</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.400682693837517</v>
+        <v>-2.467032243399985</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.113820609453571</v>
+        <v>-4.269190181362807</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.327742043413207</v>
+        <v>-3.442957789039152</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.86010000778847</v>
+        <v>2.220810229942944</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.539850609508551</v>
+        <v>0.5690293258294705</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.287300902005826</v>
+        <v>3.325805748180501</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.417347976503687</v>
+        <v>1.612894968566297</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.1700879807583751</v>
+        <v>-0.2346237218796164</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.837517276954843</v>
+        <v>1.80458696402048</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.946341982245851</v>
+        <v>3.803995700624716</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.8295044241519278</v>
+        <v>1.001005740066552</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.089713126282817</v>
+        <v>1.909570853135401</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.631691123925107</v>
+        <v>8.802677207423651</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.309008073035877</v>
+        <v>7.573454542567254</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.831100083404129</v>
+        <v>9.777288286754773</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.038493527776548</v>
+        <v>7.051985373787814</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.472984473086464</v>
+        <v>5.400563248866249</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.394169562908545</v>
+        <v>7.307872427129576</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.2327853006235221</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3704245640206547</v>
+        <v>0.3704245640206548</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2957706519778778</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5971890956711299</v>
+        <v>-0.5535416703622148</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8963670755455809</v>
+        <v>-0.8990384319430578</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7684925600380932</v>
+        <v>-0.7462035908964219</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1006730586868045</v>
+        <v>0.1166306777618971</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.03528037654857536</v>
+        <v>0.02991720867007543</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1702239019401217</v>
+        <v>0.1820938323282912</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08284279493296101</v>
+        <v>0.1006529883773235</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.009960734234279579</v>
+        <v>-0.01457386814963562</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1210006450264146</v>
+        <v>0.1132180448597207</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.157561305126061</v>
+        <v>2.151379779713285</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6455804852835744</v>
+        <v>0.7262510066339384</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.157866338387894</v>
+        <v>1.074777778326432</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5358618854273126</v>
+        <v>0.5429929166554356</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4593874705254268</v>
+        <v>0.4738940473093283</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6180071000806103</v>
+        <v>0.6157194658913785</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5071953544829279</v>
+        <v>0.5137562766100523</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4024591929013056</v>
+        <v>0.3950150019139454</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5503516645387857</v>
+        <v>0.5368777124208036</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.401662837257113</v>
+        <v>1.428424821803987</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.2453212792648175</v>
+        <v>-0.2171626787786805</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.916797385506174</v>
+        <v>2.955827171623292</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.635961528039017</v>
+        <v>3.345739855425779</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.296713309132848</v>
+        <v>1.32844471685497</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.710838326610413</v>
+        <v>3.659720613098481</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.814199871161597</v>
+        <v>2.810333731690351</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.01584197434468</v>
+        <v>0.9220580153238632</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.740691161992155</v>
+        <v>3.719254125822145</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.396302275808658</v>
+        <v>4.384900203869578</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.470766824699731</v>
+        <v>2.497779611327556</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.75329400766538</v>
+        <v>5.787398995107976</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.04148767928634</v>
+        <v>6.983647964303727</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.985794492393086</v>
+        <v>4.860956087617444</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.026888775830971</v>
+        <v>6.808966315103586</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.329713513822631</v>
+        <v>5.385600138356045</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.297833460632939</v>
+        <v>3.328000141973736</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.928468042578471</v>
+        <v>5.865692999886042</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1575928387483625</v>
+        <v>0.1598506175456129</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.03079334446904845</v>
+        <v>-0.0294560130965594</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3312148789244491</v>
+        <v>0.3269475459353843</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2308791535094844</v>
+        <v>0.2212884860000899</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.08245449813268943</v>
+        <v>0.08725441568495029</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2387780533100064</v>
+        <v>0.2303837058460175</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2308264494050949</v>
+        <v>0.2349934844777623</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.08532416396716447</v>
+        <v>0.07615028397489647</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3090218404322538</v>
+        <v>0.3119893834766557</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5798237834782834</v>
+        <v>0.5786050483433212</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3254346028369444</v>
+        <v>0.3335655905732632</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.7713083072101738</v>
+        <v>0.7597924833580735</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.514107317606371</v>
+        <v>0.5105945455488685</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3556519791191848</v>
+        <v>0.3510638331246307</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5202657294616582</v>
+        <v>0.5020722549386708</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4909960689080338</v>
+        <v>0.4992666128533174</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2970244001466082</v>
+        <v>0.3069634070675666</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.5493005212760552</v>
+        <v>0.5447082484479052</v>
       </c>
     </row>
     <row r="46">
